--- a/tco16-dev2.xlsx
+++ b/tco16-dev2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish Bisht\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XAMPP\htdocs\GitHub\tco16-development-task\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>HTML</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Page Design</t>
   </si>
   <si>
-    <t>Displaying Page cotent</t>
-  </si>
-  <si>
     <t>Javascript</t>
   </si>
   <si>
@@ -66,6 +63,21 @@
   </si>
   <si>
     <t>Dynamically Loading page</t>
+  </si>
+  <si>
+    <t>Displaying Page content</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>Database Used</t>
+  </si>
+  <si>
+    <t>Dynamicaly generating Web Page</t>
   </si>
 </sst>
 </file>
@@ -383,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,42 +421,58 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
